--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_22_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_22_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>103806.8447662153</v>
+        <v>95644.18534970313</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11574767.56599372</v>
+        <v>11574767.56599373</v>
       </c>
     </row>
     <row r="9">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="D8" t="n">
-        <v>119.0839105424617</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>30.70785528783134</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>74.18125311796777</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>119.0839105424617</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>104.8891084058003</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>119.0839105424617</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>48.24756626454838</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>39.3603752680919</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>87.6079415326393</v>
       </c>
       <c r="V9" t="n">
-        <v>119.0839105424617</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="W9" t="n">
-        <v>119.0839105424617</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>119.0839105424617</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>46.05514816323321</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>46.05514816323275</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>115.9479857743527</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
         <v>267.0243359415286</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>124.4877190616035</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>55.49107235181526</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>208.2837776623363</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>253.5999082581257</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>322.7798206500257</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1703,7 +1703,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H15" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306968</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4.157331332453444</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.43948853687787</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>368.0945165988667</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1858,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>178.5512176338177</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H18" t="n">
-        <v>31.62322353306969</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>124.8306395731037</v>
       </c>
       <c r="U18" t="n">
-        <v>174.5071388043578</v>
+        <v>174.5071388043577</v>
       </c>
       <c r="V18" t="n">
         <v>197.1263427586206</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>175.9842295660205</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>105.6965628329867</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>252.4843751595147</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>370.600858723734</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2247,16 +2247,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>155.972925266962</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.112296432457722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>224.285978493914</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>321.2276401352001</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>5.033780699103638</v>
+        <v>191.0053451518775</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2563,16 +2563,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>78.33028524571704</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>149.6157531058527</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>130.2917056056572</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>96.63918828016756</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -2845,13 +2845,13 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>109.5540470185014</v>
       </c>
       <c r="V29" t="n">
-        <v>65.45709821928034</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>141.0124762330261</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.033780699103757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,16 +3037,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>109.5540470185019</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>183.4872045441993</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>5.033780699103743</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>5.033780699103638</v>
       </c>
       <c r="U34" t="n">
         <v>275.6027656317444</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.3951661316658</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>168.4257624077808</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>44.17482029426273</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T36" t="n">
         <v>124.8306395731037</v>
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>2.188007759424337</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>37.69870921092637</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,22 +3505,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>340.9059975379537</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>149.6157531058528</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T39" t="n">
         <v>124.8306395731037</v>
@@ -3663,7 +3663,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>55.41429219750597</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>131.884229727403</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>164.1017117126583</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>401.5266111030793</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T42" t="n">
         <v>124.8306395731037</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.63918828016777</v>
+        <v>99.75227354446167</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>302.8196695381251</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3991,10 +3991,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>109.5540470185018</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>251.9316062604178</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>143.3193010541979</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>129.8134911691158</v>
+        <v>281.1183051391063</v>
       </c>
       <c r="C8" t="n">
-        <v>129.8134911691158</v>
+        <v>160.8315268133886</v>
       </c>
       <c r="D8" t="n">
-        <v>9.526712843396938</v>
+        <v>160.8315268133886</v>
       </c>
       <c r="E8" t="n">
-        <v>9.526712843396938</v>
+        <v>160.8315268133886</v>
       </c>
       <c r="F8" t="n">
-        <v>9.526712843396938</v>
+        <v>129.8134911691145</v>
       </c>
       <c r="G8" t="n">
-        <v>9.526712843396938</v>
+        <v>129.8134911691145</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396938</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="I8" t="n">
-        <v>23.57954741585583</v>
+        <v>23.57954741585561</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306558066</v>
+        <v>55.41632306558011</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318076</v>
+        <v>103.1313969318066</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183105</v>
+        <v>162.3261653183089</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590946</v>
+        <v>228.1917507590923</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326599</v>
+        <v>295.123110232657</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336446</v>
+        <v>358.3244950336411</v>
       </c>
       <c r="P8" t="n">
-        <v>412.2654147455696</v>
+        <v>412.2654147455655</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990245041</v>
+        <v>452.7727990244996</v>
       </c>
       <c r="R8" t="n">
-        <v>476.3356421698469</v>
+        <v>476.335642169842</v>
       </c>
       <c r="S8" t="n">
-        <v>476.3356421698469</v>
+        <v>401.405083464824</v>
       </c>
       <c r="T8" t="n">
-        <v>476.3356421698469</v>
+        <v>401.405083464824</v>
       </c>
       <c r="U8" t="n">
-        <v>356.048863844128</v>
+        <v>401.405083464824</v>
       </c>
       <c r="V8" t="n">
-        <v>250.1002694948348</v>
+        <v>401.405083464824</v>
       </c>
       <c r="W8" t="n">
-        <v>250.1002694948348</v>
+        <v>401.405083464824</v>
       </c>
       <c r="X8" t="n">
-        <v>129.8134911691158</v>
+        <v>401.405083464824</v>
       </c>
       <c r="Y8" t="n">
-        <v>129.8134911691158</v>
+        <v>401.405083464824</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>98.01958307838713</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="C9" t="n">
-        <v>98.01958307838713</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="D9" t="n">
-        <v>98.01958307838713</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="E9" t="n">
-        <v>49.28466765965138</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="F9" t="n">
-        <v>49.28466765965138</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="G9" t="n">
-        <v>49.28466765965138</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843396938</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="I9" t="n">
-        <v>16.43678475114694</v>
+        <v>16.43678475114677</v>
       </c>
       <c r="J9" t="n">
-        <v>35.39855022437533</v>
+        <v>35.39855022437496</v>
       </c>
       <c r="K9" t="n">
-        <v>67.80722760369147</v>
+        <v>67.80722760369076</v>
       </c>
       <c r="L9" t="n">
-        <v>111.3846938193811</v>
+        <v>111.38469381938</v>
       </c>
       <c r="M9" t="n">
-        <v>162.2375414767974</v>
+        <v>162.2375414767957</v>
       </c>
       <c r="N9" t="n">
-        <v>214.4363126943346</v>
+        <v>214.4363126943324</v>
       </c>
       <c r="O9" t="n">
-        <v>262.1879905006676</v>
+        <v>262.1879905006649</v>
       </c>
       <c r="P9" t="n">
-        <v>300.51292180253</v>
+        <v>300.5129218025269</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.1321234335053</v>
+        <v>326.1321234335019</v>
       </c>
       <c r="R9" t="n">
-        <v>338.5931397298249</v>
+        <v>338.5931397298214</v>
       </c>
       <c r="S9" t="n">
-        <v>338.5931397298249</v>
+        <v>338.5931397298214</v>
       </c>
       <c r="T9" t="n">
-        <v>338.5931397298249</v>
+        <v>338.5931397298214</v>
       </c>
       <c r="U9" t="n">
-        <v>338.5931397298249</v>
+        <v>250.1002694948322</v>
       </c>
       <c r="V9" t="n">
-        <v>218.306361404106</v>
+        <v>129.8134911691145</v>
       </c>
       <c r="W9" t="n">
-        <v>98.01958307838713</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="X9" t="n">
-        <v>98.01958307838713</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="Y9" t="n">
-        <v>98.01958307838713</v>
+        <v>9.52671284339684</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.526712843396938</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="C10" t="n">
-        <v>9.526712843396938</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="D10" t="n">
-        <v>9.526712843396938</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="E10" t="n">
-        <v>9.526712843396938</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="F10" t="n">
-        <v>9.526712843396938</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="G10" t="n">
-        <v>9.526712843396938</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="H10" t="n">
-        <v>9.526712843396938</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="I10" t="n">
-        <v>9.526712843396938</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="J10" t="n">
-        <v>21.42271513642524</v>
+        <v>21.42271513642502</v>
       </c>
       <c r="K10" t="n">
-        <v>40.97150121137724</v>
+        <v>40.97150121137683</v>
       </c>
       <c r="L10" t="n">
-        <v>65.98721697583461</v>
+        <v>65.98721697583395</v>
       </c>
       <c r="M10" t="n">
-        <v>92.36278178728982</v>
+        <v>92.36278178728887</v>
       </c>
       <c r="N10" t="n">
-        <v>118.1111946198146</v>
+        <v>118.1111946198134</v>
       </c>
       <c r="O10" t="n">
-        <v>141.8940213720333</v>
+        <v>141.8940213720318</v>
       </c>
       <c r="P10" t="n">
-        <v>162.2443382688378</v>
+        <v>162.2443382688361</v>
       </c>
       <c r="Q10" t="n">
-        <v>176.3338428491494</v>
+        <v>176.3338428491476</v>
       </c>
       <c r="R10" t="n">
-        <v>176.3338428491494</v>
+        <v>176.3338428491476</v>
       </c>
       <c r="S10" t="n">
-        <v>176.3338428491494</v>
+        <v>176.3338428491476</v>
       </c>
       <c r="T10" t="n">
-        <v>129.8134911691158</v>
+        <v>176.3338428491476</v>
       </c>
       <c r="U10" t="n">
-        <v>129.8134911691158</v>
+        <v>129.8134911691145</v>
       </c>
       <c r="V10" t="n">
-        <v>129.8134911691158</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="W10" t="n">
-        <v>129.8134911691158</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="X10" t="n">
-        <v>129.8134911691158</v>
+        <v>9.52671284339684</v>
       </c>
       <c r="Y10" t="n">
-        <v>129.8134911691158</v>
+        <v>9.52671284339684</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>316.9281030050443</v>
+        <v>1703.234501542679</v>
       </c>
       <c r="C11" t="n">
-        <v>316.9281030050443</v>
+        <v>1586.115323992828</v>
       </c>
       <c r="D11" t="n">
-        <v>316.9281030050443</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="E11" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F11" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G11" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867026</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2101.256885969251</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V11" t="n">
-        <v>1975.511715199955</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W11" t="n">
-        <v>1570.656260610988</v>
+        <v>1703.234501542679</v>
       </c>
       <c r="X11" t="n">
-        <v>1151.513797190299</v>
+        <v>1703.234501542679</v>
       </c>
       <c r="Y11" t="n">
-        <v>743.2276734899522</v>
+        <v>1703.234501542679</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495866</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765403</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927019</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P12" t="n">
         <v>1488.088567599445</v>
@@ -5159,13 +5159,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W12" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X12" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y12" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>103.2581397831116</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="C13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="D13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="E13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K13" t="n">
         <v>202.912315818696</v>
@@ -5226,25 +5226,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S13" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T13" t="n">
-        <v>889.6597230122813</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="U13" t="n">
-        <v>889.6597230122813</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="V13" t="n">
-        <v>602.7042148827118</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="W13" t="n">
-        <v>330.6778104690033</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="X13" t="n">
-        <v>330.6778104690033</v>
+        <v>257.5942057533349</v>
       </c>
       <c r="Y13" t="n">
-        <v>103.2581397831116</v>
+        <v>47.20655154895472</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1514.88554354214</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C14" t="n">
-        <v>1076.743070725563</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D14" t="n">
-        <v>750.7028478467491</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E14" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F14" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L14" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5308,22 +5308,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="W14" t="n">
-        <v>2360.327577447737</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="X14" t="n">
-        <v>1941.185114027047</v>
+        <v>702.8707663625338</v>
       </c>
       <c r="Y14" t="n">
-        <v>1941.185114027047</v>
+        <v>702.8707663625338</v>
       </c>
     </row>
     <row r="15">
@@ -5336,25 +5336,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235846</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.4989642124677</v>
+        <v>360.4569907861184</v>
       </c>
       <c r="C16" t="n">
-        <v>132.4989642124677</v>
+        <v>360.4569907861184</v>
       </c>
       <c r="D16" t="n">
-        <v>132.4989642124677</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="E16" t="n">
-        <v>132.4989642124677</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F16" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J16" t="n">
         <v>106.1122152511379</v>
@@ -5466,22 +5466,22 @@
         <v>889.6597230122813</v>
       </c>
       <c r="T16" t="n">
-        <v>889.6597230122813</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="U16" t="n">
-        <v>611.2730910610244</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="V16" t="n">
-        <v>324.3175829314549</v>
+        <v>360.4569907861184</v>
       </c>
       <c r="W16" t="n">
-        <v>324.3175829314549</v>
+        <v>360.4569907861184</v>
       </c>
       <c r="X16" t="n">
-        <v>324.3175829314549</v>
+        <v>360.4569907861184</v>
       </c>
       <c r="Y16" t="n">
-        <v>324.3175829314549</v>
+        <v>360.4569907861184</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1280.66136901061</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="C17" t="n">
-        <v>1280.66136901061</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="D17" t="n">
-        <v>908.8487259814518</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E17" t="n">
-        <v>475.073981139747</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L17" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M17" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
@@ -5545,22 +5545,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U17" t="n">
-        <v>2108.089956131646</v>
+        <v>2139.506442375849</v>
       </c>
       <c r="V17" t="n">
-        <v>2108.089956131646</v>
+        <v>2139.506442375849</v>
       </c>
       <c r="W17" t="n">
-        <v>2108.089956131646</v>
+        <v>1734.650987786883</v>
       </c>
       <c r="X17" t="n">
-        <v>1688.947492710957</v>
+        <v>1734.650987786883</v>
       </c>
       <c r="Y17" t="n">
-        <v>1280.66136901061</v>
+        <v>1734.650987786883</v>
       </c>
     </row>
     <row r="18">
@@ -5573,25 +5573,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E18" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235846</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5600,10 +5600,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>330.6778104690033</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="C19" t="n">
-        <v>330.6778104690033</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="D19" t="n">
-        <v>330.6778104690033</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="E19" t="n">
-        <v>330.6778104690033</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="F19" t="n">
-        <v>153.9707564307595</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
         <v>106.1122152511379</v>
@@ -5712,13 +5712,13 @@
         <v>602.7042148827118</v>
       </c>
       <c r="W19" t="n">
-        <v>330.6778104690033</v>
+        <v>602.7042148827118</v>
       </c>
       <c r="X19" t="n">
-        <v>330.6778104690033</v>
+        <v>357.3124602161242</v>
       </c>
       <c r="Y19" t="n">
-        <v>330.6778104690033</v>
+        <v>357.3124602161242</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>446.7092428694776</v>
+        <v>1318.626460527759</v>
       </c>
       <c r="C20" t="n">
-        <v>446.7092428694776</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="D20" t="n">
-        <v>446.7092428694776</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E20" t="n">
         <v>446.7092428694776</v>
@@ -5743,34 +5743,34 @@
         <v>446.7092428694776</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L20" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5785,19 +5785,19 @@
         <v>2360.327577447737</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V20" t="n">
-        <v>2105.292855064388</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="W20" t="n">
-        <v>1700.437400475421</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="X20" t="n">
-        <v>1281.294937054732</v>
+        <v>1726.912584228106</v>
       </c>
       <c r="Y20" t="n">
-        <v>873.0088133543854</v>
+        <v>1318.626460527759</v>
       </c>
     </row>
     <row r="21">
@@ -5810,25 +5810,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E21" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5837,10 +5837,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>694.697370523135</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="C22" t="n">
-        <v>522.1356590063599</v>
+        <v>717.0980114955063</v>
       </c>
       <c r="D22" t="n">
-        <v>356.2576662078826</v>
+        <v>551.220018697029</v>
       </c>
       <c r="E22" t="n">
-        <v>356.2576662078826</v>
+        <v>381.4620149477662</v>
       </c>
       <c r="F22" t="n">
-        <v>179.5506121696388</v>
+        <v>204.7549609095225</v>
       </c>
       <c r="G22" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
         <v>106.1122152511379</v>
@@ -5955,7 +5955,7 @@
         <v>889.6597230122813</v>
       </c>
       <c r="Y22" t="n">
-        <v>886.515989242122</v>
+        <v>889.6597230122813</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1616.712750254118</v>
+        <v>673.2607362976736</v>
       </c>
       <c r="C23" t="n">
-        <v>1178.570277437541</v>
+        <v>673.2607362976736</v>
       </c>
       <c r="D23" t="n">
-        <v>1178.570277437541</v>
+        <v>673.2607362976736</v>
       </c>
       <c r="E23" t="n">
-        <v>744.7955325958366</v>
+        <v>673.2607362976736</v>
       </c>
       <c r="F23" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G23" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L23" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q23" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R23" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V23" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W23" t="n">
-        <v>2035.855213674807</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X23" t="n">
-        <v>1616.712750254118</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y23" t="n">
-        <v>1616.712750254118</v>
+        <v>673.2607362976736</v>
       </c>
     </row>
     <row r="24">
@@ -6047,25 +6047,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E24" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G24" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
@@ -6074,10 +6074,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M24" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.20655154895473</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="C25" t="n">
-        <v>47.20655154895473</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="D25" t="n">
-        <v>47.20655154895473</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="E25" t="n">
-        <v>47.20655154895473</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F25" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G25" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J25" t="n">
         <v>106.1122152511379</v>
@@ -6177,22 +6177,22 @@
         <v>889.6597230122813</v>
       </c>
       <c r="T25" t="n">
-        <v>884.5750960434898</v>
+        <v>696.7250309396778</v>
       </c>
       <c r="U25" t="n">
-        <v>606.1884640922327</v>
+        <v>696.7250309396778</v>
       </c>
       <c r="V25" t="n">
-        <v>319.2329559626632</v>
+        <v>696.7250309396778</v>
       </c>
       <c r="W25" t="n">
-        <v>47.20655154895473</v>
+        <v>696.7250309396778</v>
       </c>
       <c r="X25" t="n">
-        <v>47.20655154895473</v>
+        <v>451.3332762730903</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.20655154895473</v>
+        <v>223.9136055871985</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1270.101860895375</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C26" t="n">
-        <v>831.9593880787988</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D26" t="n">
-        <v>396.0496032532433</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E26" t="n">
-        <v>396.0496032532433</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F26" t="n">
-        <v>396.0496032532433</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G26" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I26" t="n">
-        <v>118.406501800135</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867018</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N26" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O26" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q26" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R26" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447736</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="U26" t="n">
-        <v>2101.25688596925</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="V26" t="n">
-        <v>2101.25688596925</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="W26" t="n">
-        <v>1696.401431380283</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X26" t="n">
-        <v>1696.401431380283</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y26" t="n">
-        <v>1696.401431380283</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="27">
@@ -6284,7 +6284,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
         <v>341.0245550495863</v>
@@ -6296,13 +6296,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J27" t="n">
         <v>175.316627066898</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>144.8218932460937</v>
+        <v>697.8411042932942</v>
       </c>
       <c r="C28" t="n">
-        <v>144.8218932460937</v>
+        <v>525.2793927765191</v>
       </c>
       <c r="D28" t="n">
-        <v>144.8218932460937</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E28" t="n">
-        <v>144.8218932460937</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F28" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J28" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
         <v>202.912315818696</v>
@@ -6423,13 +6423,13 @@
         <v>889.6597230122813</v>
       </c>
       <c r="W28" t="n">
-        <v>617.6333185985729</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="X28" t="n">
-        <v>372.2415639319854</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="Y28" t="n">
-        <v>144.8218932460937</v>
+        <v>889.6597230122813</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L29" t="n">
         <v>805.440802286702</v>
@@ -6493,22 +6493,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U29" t="n">
-        <v>1849.01926465316</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="V29" t="n">
-        <v>1782.900983623584</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="W29" t="n">
-        <v>1782.900983623584</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X29" t="n">
-        <v>1782.900983623584</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y29" t="n">
-        <v>1782.900983623584</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="30">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.20655154895473</v>
+        <v>555.4042596134699</v>
       </c>
       <c r="C31" t="n">
-        <v>47.20655154895473</v>
+        <v>382.8425480966948</v>
       </c>
       <c r="D31" t="n">
-        <v>47.20655154895473</v>
+        <v>216.9645552982175</v>
       </c>
       <c r="E31" t="n">
         <v>47.20655154895473</v>
@@ -6648,25 +6648,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S31" t="n">
-        <v>889.6597230122813</v>
+        <v>747.222878332457</v>
       </c>
       <c r="T31" t="n">
-        <v>889.6597230122813</v>
+        <v>747.222878332457</v>
       </c>
       <c r="U31" t="n">
-        <v>611.2730910610244</v>
+        <v>747.222878332457</v>
       </c>
       <c r="V31" t="n">
-        <v>324.3175829314549</v>
+        <v>747.222878332457</v>
       </c>
       <c r="W31" t="n">
-        <v>52.2911785177464</v>
+        <v>747.222878332457</v>
       </c>
       <c r="X31" t="n">
-        <v>52.2911785177464</v>
+        <v>747.222878332457</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.20655154895473</v>
+        <v>747.222878332457</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>921.2588091910869</v>
+        <v>1893.561637177626</v>
       </c>
       <c r="C32" t="n">
-        <v>483.1163363745102</v>
+        <v>1455.41916436105</v>
       </c>
       <c r="D32" t="n">
-        <v>47.20655154895474</v>
+        <v>1019.509379535494</v>
       </c>
       <c r="E32" t="n">
-        <v>47.20655154895474</v>
+        <v>585.7346346937893</v>
       </c>
       <c r="F32" t="n">
-        <v>47.20655154895474</v>
+        <v>157.867205102997</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895474</v>
+        <v>157.867205102997</v>
       </c>
       <c r="H32" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K32" t="n">
         <v>512.3249274228019</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M32" t="n">
         <v>1131.58869045549</v>
@@ -6721,31 +6721,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q32" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R32" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W32" t="n">
-        <v>2174.986966797031</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X32" t="n">
-        <v>1755.844503376341</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y32" t="n">
-        <v>1347.558379675995</v>
+        <v>2319.861207662534</v>
       </c>
     </row>
     <row r="33">
@@ -6785,10 +6785,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L33" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M33" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N33" t="n">
         <v>1061.861364220108</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.2911785177464</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="C34" t="n">
-        <v>52.2911785177464</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="D34" t="n">
         <v>47.20655154895474</v>
@@ -6888,22 +6888,22 @@
         <v>889.6597230122813</v>
       </c>
       <c r="T34" t="n">
-        <v>889.6597230122813</v>
+        <v>884.5750960434898</v>
       </c>
       <c r="U34" t="n">
-        <v>611.2730910610244</v>
+        <v>606.1884640922327</v>
       </c>
       <c r="V34" t="n">
-        <v>324.3175829314549</v>
+        <v>319.2329559626632</v>
       </c>
       <c r="W34" t="n">
-        <v>52.2911785177464</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="X34" t="n">
-        <v>52.2911785177464</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="Y34" t="n">
-        <v>52.2911785177464</v>
+        <v>47.20655154895474</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1144.102679307048</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="C35" t="n">
-        <v>1144.102679307048</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D35" t="n">
-        <v>1144.102679307048</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E35" t="n">
-        <v>1144.102679307048</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F35" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
         <v>118.4065018001353</v>
@@ -6940,10 +6940,10 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L35" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
@@ -6952,37 +6952,37 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662535</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2319.861207662535</v>
+        <v>2190.200544712604</v>
       </c>
       <c r="U35" t="n">
-        <v>2319.861207662535</v>
+        <v>2190.200544712604</v>
       </c>
       <c r="V35" t="n">
-        <v>1957.244257596361</v>
+        <v>2190.200544712604</v>
       </c>
       <c r="W35" t="n">
-        <v>1552.388803007394</v>
+        <v>2190.200544712604</v>
       </c>
       <c r="X35" t="n">
-        <v>1552.388803007394</v>
+        <v>1771.058081291915</v>
       </c>
       <c r="Y35" t="n">
-        <v>1144.102679307048</v>
+        <v>1771.058081291915</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>1119.791305117179</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>930.5806015906855</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>847.1967632068472</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>762.825662796504</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>730.8830127631003</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
-        <v>765.0997489345763</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
-        <v>858.9930882810435</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
-        <v>1235.255139210236</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M36" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N36" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O36" t="n">
-        <v>1981.990728248784</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P36" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q36" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R36" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S36" t="n">
-        <v>2315.706546847472</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T36" t="n">
-        <v>2189.614991723125</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U36" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V36" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W36" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X36" t="n">
-        <v>1474.037446581079</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y36" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>745.2331845165158</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="C37" t="n">
-        <v>743.0230756686125</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="D37" t="n">
-        <v>577.1450828701352</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E37" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F37" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G37" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H37" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
         <v>106.1122152511379</v>
@@ -7122,25 +7122,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S37" t="n">
-        <v>745.2331845165158</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T37" t="n">
-        <v>745.2331845165158</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U37" t="n">
-        <v>745.2331845165158</v>
+        <v>851.5802187588204</v>
       </c>
       <c r="V37" t="n">
-        <v>745.2331845165158</v>
+        <v>564.6247106292508</v>
       </c>
       <c r="W37" t="n">
-        <v>745.2331845165158</v>
+        <v>292.5983062155423</v>
       </c>
       <c r="X37" t="n">
-        <v>745.2331845165158</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="Y37" t="n">
-        <v>745.2331845165158</v>
+        <v>47.20655154895473</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>661.2775954676239</v>
+        <v>1934.028006962829</v>
       </c>
       <c r="C38" t="n">
-        <v>316.9281030050443</v>
+        <v>1495.885534146253</v>
       </c>
       <c r="D38" t="n">
-        <v>316.9281030050443</v>
+        <v>1059.975749320697</v>
       </c>
       <c r="E38" t="n">
-        <v>316.9281030050443</v>
+        <v>626.2010044789922</v>
       </c>
       <c r="F38" t="n">
-        <v>316.9281030050443</v>
+        <v>198.3335748882</v>
       </c>
       <c r="G38" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M38" t="n">
         <v>1131.58869045549</v>
@@ -7195,31 +7195,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q38" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2319.861207662535</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T38" t="n">
-        <v>2319.861207662535</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U38" t="n">
-        <v>2319.861207662535</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V38" t="n">
-        <v>2319.861207662535</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W38" t="n">
-        <v>1915.005753073568</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X38" t="n">
-        <v>1495.863289652878</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="Y38" t="n">
-        <v>1087.577165952532</v>
+        <v>2360.327577447737</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I39" t="n">
         <v>81.42328772043086</v>
@@ -7256,13 +7256,13 @@
         <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M39" t="n">
-        <v>803.3877032987882</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
@@ -7274,7 +7274,7 @@
         <v>1488.088567599445</v>
       </c>
       <c r="Q39" t="n">
-        <v>1614.94766180768</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R39" t="n">
         <v>1676.651116233592</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>452.4493496267069</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="C40" t="n">
-        <v>279.8876381099319</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="D40" t="n">
-        <v>279.8876381099319</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="E40" t="n">
-        <v>279.8876381099319</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F40" t="n">
-        <v>103.1805840716881</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>326.7831174369941</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M40" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N40" t="n">
-        <v>584.8864215794131</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O40" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P40" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q40" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R40" t="n">
-        <v>889.6597230122816</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S40" t="n">
-        <v>889.6597230122816</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T40" t="n">
-        <v>889.6597230122816</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U40" t="n">
-        <v>889.6597230122816</v>
+        <v>756.4433293482379</v>
       </c>
       <c r="V40" t="n">
-        <v>889.6597230122816</v>
+        <v>756.4433293482379</v>
       </c>
       <c r="W40" t="n">
-        <v>889.6597230122816</v>
+        <v>484.4169249345294</v>
       </c>
       <c r="X40" t="n">
-        <v>644.267968345694</v>
+        <v>239.0251702679419</v>
       </c>
       <c r="Y40" t="n">
-        <v>644.267968345694</v>
+        <v>239.0251702679419</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>716.4307943255671</v>
+        <v>1514.88554354214</v>
       </c>
       <c r="C41" t="n">
-        <v>716.4307943255671</v>
+        <v>1076.743070725563</v>
       </c>
       <c r="D41" t="n">
-        <v>716.4307943255671</v>
+        <v>640.8332859000079</v>
       </c>
       <c r="E41" t="n">
-        <v>716.4307943255671</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F41" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G41" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L41" t="n">
         <v>805.4408022867023</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
         <v>1463.013992431967</v>
@@ -7429,7 +7429,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
@@ -7441,22 +7441,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>2148.556325916849</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U41" t="n">
-        <v>1889.485634438363</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V41" t="n">
-        <v>1526.86868437219</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W41" t="n">
-        <v>1122.013229783223</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X41" t="n">
-        <v>716.4307943255671</v>
+        <v>1941.185114027048</v>
       </c>
       <c r="Y41" t="n">
-        <v>716.4307943255671</v>
+        <v>1941.185114027048</v>
       </c>
     </row>
     <row r="42">
@@ -7493,19 +7493,19 @@
         <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>803.3877032987882</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P42" t="n">
         <v>1488.088567599445</v>
@@ -7572,49 +7572,49 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>326.7831174369941</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M43" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N43" t="n">
-        <v>584.8864215794131</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O43" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P43" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q43" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R43" t="n">
-        <v>889.6597230122816</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S43" t="n">
-        <v>889.6597230122816</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T43" t="n">
-        <v>889.6597230122816</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="U43" t="n">
-        <v>889.6597230122816</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="V43" t="n">
-        <v>889.6597230122816</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="W43" t="n">
-        <v>617.6333185985732</v>
+        <v>375.3860945019795</v>
       </c>
       <c r="X43" t="n">
-        <v>372.2415639319856</v>
+        <v>375.3860945019795</v>
       </c>
       <c r="Y43" t="n">
-        <v>144.8218932460939</v>
+        <v>147.9664238160877</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1782.900983623584</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="C44" t="n">
-        <v>1344.758510807007</v>
+        <v>2013.98275358362</v>
       </c>
       <c r="D44" t="n">
-        <v>908.8487259814518</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="E44" t="n">
-        <v>475.073981139747</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
         <v>805.4408022867025</v>
@@ -7681,19 +7681,19 @@
         <v>2319.861207662534</v>
       </c>
       <c r="U44" t="n">
-        <v>2209.200554108492</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V44" t="n">
-        <v>2209.200554108492</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W44" t="n">
-        <v>2209.200554108492</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X44" t="n">
-        <v>2209.200554108492</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.200554108492</v>
+        <v>2319.861207662534</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G45" t="n">
         <v>79.1492015823585</v>
@@ -7766,13 +7766,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W45" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X45" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y45" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>389.7915983856759</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="C46" t="n">
-        <v>389.7915983856759</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="D46" t="n">
-        <v>223.9136055871985</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="E46" t="n">
-        <v>223.9136055871985</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H46" t="n">
         <v>47.20655154895474</v>
@@ -7839,19 +7839,19 @@
         <v>889.6597230122813</v>
       </c>
       <c r="U46" t="n">
-        <v>889.6597230122813</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="V46" t="n">
-        <v>635.1833530522633</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="W46" t="n">
-        <v>635.1833530522633</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="X46" t="n">
-        <v>389.7915983856759</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="Y46" t="n">
-        <v>389.7915983856759</v>
+        <v>179.5506121696388</v>
       </c>
     </row>
   </sheetData>
@@ -23020,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>302.9526642375982</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>314.6771375459504</v>
       </c>
       <c r="D8" t="n">
-        <v>312.4667764348382</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>392.880900007053</v>
       </c>
       <c r="G8" t="n">
         <v>397.0049566522158</v>
       </c>
       <c r="H8" t="n">
-        <v>282.3584801445919</v>
+        <v>163.2745696021314</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.18125311796769</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.2079358176206</v>
       </c>
       <c r="U8" t="n">
-        <v>137.5158574008313</v>
+        <v>256.599767943293</v>
       </c>
       <c r="V8" t="n">
-        <v>254.1016721597115</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>295.8671282440207</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23108,7 +23108,7 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>44.93164426176743</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
         <v>82.55</v>
@@ -23117,7 +23117,7 @@
         <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>39.36037526809192</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23150,19 +23150,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656961</v>
+        <v>59.05530966656965</v>
       </c>
       <c r="T9" t="n">
         <v>128.0597233353587</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5598441976481</v>
+        <v>86.95190266500884</v>
       </c>
       <c r="V9" t="n">
-        <v>78.04243221615891</v>
+        <v>78.04243221616014</v>
       </c>
       <c r="W9" t="n">
-        <v>64.3856161816762</v>
+        <v>64.38561618167742</v>
       </c>
       <c r="X9" t="n">
         <v>153.3187614035088</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>70.81652198933551</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -23199,7 +23199,7 @@
         <v>136.9920546719889</v>
       </c>
       <c r="I10" t="n">
-        <v>82.66219243742786</v>
+        <v>82.66219243742792</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616401</v>
+        <v>13.56162857616409</v>
       </c>
       <c r="S10" t="n">
         <v>154.6870177308997</v>
       </c>
       <c r="T10" t="n">
-        <v>196.6393115543885</v>
+        <v>242.6944597176218</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6394002001954</v>
+        <v>229.5842520369626</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>165.0020425058133</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>317.8130623140582</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>234.5030615039082</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23418,7 +23418,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>115.345022049792</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>16.86169631669645</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>168.436666521933</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>108.7708663272742</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>160.0618815380391</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>90.50049496098346</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>62.46433369811443</v>
@@ -23706,10 +23706,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>63.45617037843323</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>77.92876692988344</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>13.91620296577671</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -23901,13 +23901,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>57.39720575062005</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>62.46433369811443</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -24025,16 +24025,16 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>106.506405405997</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>44.35018006274839</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>7.120843316644738</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811443</v>
@@ -24195,7 +24195,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.0331775465751</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24208,22 +24208,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>199.3027768009703</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>79.57925990787692</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24375,7 +24375,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.0937685836068</v>
@@ -24417,22 +24417,22 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>234.7909711565238</v>
+        <v>48.81940670374996</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24451,16 +24451,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>317.1773791616005</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,16 +24496,16 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>60.03778590972618</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>33.9275072648353</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>78.30079521769377</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.0937685836068</v>
@@ -24663,13 +24663,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24733,13 +24733,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>146.9259375451998</v>
       </c>
       <c r="V29" t="n">
-        <v>293.5336823462314</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -24888,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>1.969796877781675</v>
       </c>
       <c r="T31" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.1116932799291</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24925,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>157.4702889230268</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.6535390155789</v>
@@ -24979,13 +24979,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>217.3196954988777</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25080,7 +25080,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>159.1854321713888</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -25128,7 +25128,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556274</v>
+        <v>234.7909711565238</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1935891632185189</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>41.22777660779806</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25314,25 +25314,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>168.648086642183</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>237.9040564208181</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -25393,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>92.85505055045718</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>245.8919113014648</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
@@ -25453,13 +25453,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -25560,16 +25560,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>107.6794763861008</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144772</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>143.7185359043414</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>265.3352856806295</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>13.42442768340305</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.26124425162946</v>
+        <v>90.14815898733556</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -25803,10 +25803,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144772</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>130.9413785502858</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>146.9259375451994</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -26028,19 +26028,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811443</v>
@@ -26079,16 +26079,16 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>32.15434678785601</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>99.61853606572379</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>67773.45527479566</v>
+        <v>67773.45527479498</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>335582.4892562978</v>
+        <v>335582.4892562979</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>335582.4892562978</v>
+        <v>335582.4892562979</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>335582.4892562977</v>
+        <v>335582.4892562979</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>335582.4892562979</v>
+        <v>335582.4892562978</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>335582.4892562979</v>
+        <v>335582.4892562978</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>335582.4892562979</v>
+        <v>335582.4892562978</v>
       </c>
     </row>
     <row r="16">
@@ -26319,10 +26319,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>31062.83366761469</v>
+        <v>31062.83366761437</v>
       </c>
       <c r="E2" t="n">
-        <v>153808.6409091366</v>
+        <v>153808.6409091365</v>
       </c>
       <c r="F2" t="n">
         <v>153808.6409091365</v>
@@ -26331,10 +26331,10 @@
         <v>153808.6409091365</v>
       </c>
       <c r="H2" t="n">
-        <v>153808.6409091365</v>
+        <v>153808.6409091366</v>
       </c>
       <c r="I2" t="n">
-        <v>153808.6409091365</v>
+        <v>153808.6409091366</v>
       </c>
       <c r="J2" t="n">
         <v>153808.6409091365</v>
@@ -26346,13 +26346,13 @@
         <v>153808.6409091365</v>
       </c>
       <c r="M2" t="n">
-        <v>153808.6409091366</v>
+        <v>153808.6409091365</v>
       </c>
       <c r="N2" t="n">
-        <v>153808.6409091366</v>
+        <v>153808.6409091365</v>
       </c>
       <c r="O2" t="n">
-        <v>153808.6409091366</v>
+        <v>153808.6409091365</v>
       </c>
       <c r="P2" t="n">
         <v>153808.6409091365</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.4675730586</v>
+        <v>117708.4675730575</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.2450180435</v>
+        <v>439858.2450180445</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.06600310221</v>
+        <v>30139.0660031019</v>
       </c>
       <c r="M3" t="n">
-        <v>117374.5815597479</v>
+        <v>117374.5815597481</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>83.50572484016365</v>
+        <v>83.5057248401628</v>
       </c>
       <c r="E4" t="n">
+        <v>414.2905444231689</v>
+      </c>
+      <c r="F4" t="n">
         <v>414.290544423169</v>
       </c>
-      <c r="F4" t="n">
-        <v>414.2905444231689</v>
-      </c>
       <c r="G4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="H4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="I4" t="n">
         <v>414.2905444231689</v>
       </c>
       <c r="J4" t="n">
+        <v>414.290544423169</v>
+      </c>
+      <c r="K4" t="n">
+        <v>414.290544423169</v>
+      </c>
+      <c r="L4" t="n">
+        <v>414.290544423169</v>
+      </c>
+      <c r="M4" t="n">
         <v>414.2905444231689</v>
-      </c>
-      <c r="K4" t="n">
-        <v>414.2905444231689</v>
-      </c>
-      <c r="L4" t="n">
-        <v>414.2905444231689</v>
-      </c>
-      <c r="M4" t="n">
-        <v>414.290544423169</v>
       </c>
       <c r="N4" t="n">
         <v>414.290544423169</v>
       </c>
       <c r="O4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="P4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
     </row>
     <row r="5">
@@ -26475,25 +26475,25 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.56227239243</v>
+        <v>42922.56227239233</v>
       </c>
       <c r="E5" t="n">
+        <v>46051.08120963781</v>
+      </c>
+      <c r="F5" t="n">
         <v>46051.08120963782</v>
       </c>
-      <c r="F5" t="n">
-        <v>46051.08120963781</v>
-      </c>
       <c r="G5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="K5" t="n">
         <v>46051.08120963781</v>
@@ -26502,10 +26502,10 @@
         <v>46051.08120963782</v>
       </c>
       <c r="M5" t="n">
+        <v>46051.08120963781</v>
+      </c>
+      <c r="N5" t="n">
         <v>46051.08120963782</v>
-      </c>
-      <c r="N5" t="n">
-        <v>46051.08120963783</v>
       </c>
       <c r="O5" t="n">
         <v>46051.08120963782</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-129651.7019026765</v>
+        <v>-130850.8755039124</v>
       </c>
       <c r="E6" t="n">
-        <v>-332514.9758629679</v>
+        <v>-333156.2139767443</v>
       </c>
       <c r="F6" t="n">
-        <v>107343.2691550756</v>
+        <v>106702.0310413001</v>
       </c>
       <c r="G6" t="n">
-        <v>107343.2691550755</v>
+        <v>106702.0310413001</v>
       </c>
       <c r="H6" t="n">
-        <v>107343.2691550755</v>
+        <v>106702.0310413002</v>
       </c>
       <c r="I6" t="n">
-        <v>107343.2691550756</v>
+        <v>106702.0310413002</v>
       </c>
       <c r="J6" t="n">
-        <v>107343.2691550755</v>
+        <v>106702.0310413002</v>
       </c>
       <c r="K6" t="n">
-        <v>107343.2691550755</v>
+        <v>106702.0310413002</v>
       </c>
       <c r="L6" t="n">
-        <v>77204.20315197331</v>
+        <v>76562.96503819824</v>
       </c>
       <c r="M6" t="n">
-        <v>-10031.31240467229</v>
+        <v>-10672.5505184479</v>
       </c>
       <c r="N6" t="n">
-        <v>107343.2691550756</v>
+        <v>106702.0310413002</v>
       </c>
       <c r="O6" t="n">
-        <v>107343.2691550756</v>
+        <v>106702.0310413001</v>
       </c>
       <c r="P6" t="n">
-        <v>107343.2691550756</v>
+        <v>106702.0310413002</v>
       </c>
     </row>
   </sheetData>
@@ -26743,40 +26743,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480538</v>
+        <v>94.25048217480442</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
         <v>466.7019280932212</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="P3" t="n">
         <v>466.7019280932212</v>
@@ -26795,25 +26795,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424617</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="E4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="F4" t="n">
         <v>590.0818943619342</v>
       </c>
-      <c r="F4" t="n">
-        <v>590.0818943619341</v>
-      </c>
       <c r="G4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="J4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="K4" t="n">
         <v>590.0818943619341</v>
@@ -26822,10 +26822,10 @@
         <v>590.0818943619342</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="O4" t="n">
         <v>590.0818943619342</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480537</v>
+        <v>94.25048217480442</v>
       </c>
       <c r="E3" t="n">
-        <v>372.4514459184158</v>
+        <v>372.4514459184167</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424617</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194726</v>
+        <v>470.9979838194735</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424618</v>
+        <v>119.0839105424606</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194727</v>
+        <v>470.9979838194734</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424617</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194726</v>
+        <v>470.9979838194735</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529862</v>
+        <v>0.3788964107529823</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866624021</v>
+        <v>3.880372866623981</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555451</v>
+        <v>14.60740387555436</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214629</v>
+        <v>32.15835924214596</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430932021</v>
+        <v>48.19704430931971</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990192</v>
+        <v>59.79269533990131</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438463033</v>
+        <v>66.53089438462965</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168226</v>
+        <v>67.60743381168157</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725725</v>
+        <v>63.8397826272566</v>
       </c>
       <c r="P8" t="n">
-        <v>54.4857774867929</v>
+        <v>54.48577748679234</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670157</v>
+        <v>40.91654977670115</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196229</v>
+        <v>23.80085166196205</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033682</v>
+        <v>8.634101960033593</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071198</v>
+        <v>1.658619038071181</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03031171286023889</v>
+        <v>0.03031171286023858</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2027274522250531</v>
+        <v>0.202727452225051</v>
       </c>
       <c r="H9" t="n">
-        <v>1.95792039385775</v>
+        <v>1.95792039385773</v>
       </c>
       <c r="I9" t="n">
-        <v>6.97987061388889</v>
+        <v>6.979870613888819</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780645</v>
+        <v>19.15329845780625</v>
       </c>
       <c r="K9" t="n">
-        <v>32.736037756885</v>
+        <v>32.73603775688466</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211076</v>
+        <v>44.01764264211031</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526893</v>
+        <v>51.3665127852684</v>
       </c>
       <c r="N9" t="n">
-        <v>52.7260315328659</v>
+        <v>52.72603153286536</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619498</v>
+        <v>48.23401798619448</v>
       </c>
       <c r="P9" t="n">
-        <v>38.712051820063</v>
+        <v>38.7120518200626</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542959</v>
+        <v>25.87798144542932</v>
       </c>
       <c r="R9" t="n">
-        <v>12.5868851477976</v>
+        <v>12.58688514779747</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531137</v>
+        <v>3.765573509531098</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457181</v>
+        <v>0.8171338973457097</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01333733238322718</v>
+        <v>0.01333733238322705</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889933</v>
+        <v>0.1699598858889916</v>
       </c>
       <c r="H10" t="n">
-        <v>1.511097894540323</v>
+        <v>1.511097894540308</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643546</v>
+        <v>5.111157295643493</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235182</v>
+        <v>12.0161639323517</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055758</v>
+        <v>19.74624856055738</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207815</v>
+        <v>25.26839976207789</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803555</v>
+        <v>26.64198465803528</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063115</v>
+        <v>26.00849781063088</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547335</v>
+        <v>24.02305732547311</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333787</v>
+        <v>20.55587565333766</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839561</v>
+        <v>14.23182280839547</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517824</v>
+        <v>7.642014505517746</v>
       </c>
       <c r="S10" t="n">
-        <v>2.961937284083637</v>
+        <v>2.961937284083606</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7261922397075167</v>
+        <v>0.7261922397075092</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308737</v>
+        <v>0.009270539230308641</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32326,25 +32326,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32469,28 +32469,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32502,7 +32502,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,13 +32545,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I21" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -32569,19 +32569,19 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
         <v>0.06604272567356906</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
@@ -32633,7 +32633,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32657,10 +32657,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U22" t="n">
         <v>0.04590510768130049</v>
@@ -32706,28 +32706,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -32739,7 +32739,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,13 +32782,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -32800,25 +32800,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U24" t="n">
         <v>0.06604272567356906</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
@@ -32870,7 +32870,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32894,10 +32894,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U25" t="n">
         <v>0.04590510768130049</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32976,7 +32976,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,43 +33019,43 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I27" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
         <v>0.06604272567356906</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
@@ -33107,7 +33107,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33131,10 +33131,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
         <v>0.04590510768130049</v>
@@ -33180,28 +33180,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -33213,7 +33213,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,13 +33256,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I30" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -33274,25 +33274,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U30" t="n">
         <v>0.06604272567356906</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
@@ -33344,7 +33344,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33368,10 +33368,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U31" t="n">
         <v>0.04590510768130049</v>
@@ -33417,28 +33417,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -33450,7 +33450,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,13 +33493,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I33" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -33511,25 +33511,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U33" t="n">
         <v>0.06604272567356906</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
@@ -33581,7 +33581,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33605,10 +33605,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U34" t="n">
         <v>0.04590510768130049</v>
@@ -33654,28 +33654,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
-        <v>334.773032299473</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -33687,7 +33687,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,13 +33730,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -33748,7 +33748,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742733</v>
@@ -33760,13 +33760,13 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
         <v>0.06604272567356906</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
@@ -33818,7 +33818,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33842,10 +33842,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U37" t="n">
         <v>0.04590510768130049</v>
@@ -33888,13 +33888,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H38" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J38" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
@@ -33903,10 +33903,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
         <v>316.1166813548411</v>
@@ -33921,10 +33921,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
         <v>191.6912126917233</v>
@@ -33997,16 +33997,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233554</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S39" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,25 +34043,25 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I40" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
         <v>128.7867795998885</v>
@@ -34073,19 +34073,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R40" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,13 +34125,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H41" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062838</v>
@@ -34140,10 +34140,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
         <v>316.1166813548411</v>
@@ -34155,13 +34155,13 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405465</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811309</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
         <v>191.6912126917233</v>
@@ -34234,16 +34234,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,25 +34280,25 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
         <v>128.7867795998885</v>
@@ -34310,19 +34310,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R43" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34465,7 +34465,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.19478239642312</v>
+        <v>14.19478239642297</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214629</v>
+        <v>32.15835924214596</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430932018</v>
+        <v>48.19704430931971</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990191</v>
+        <v>59.79269533990131</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438463036</v>
+        <v>66.53089438462965</v>
       </c>
       <c r="N8" t="n">
-        <v>67.6074338116822</v>
+        <v>67.60743381168157</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725725</v>
+        <v>63.83978262725662</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679293</v>
+        <v>54.48577748679236</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670157</v>
+        <v>40.91654977670117</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196233</v>
+        <v>23.80085166196199</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888892</v>
+        <v>6.979870613888821</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780645</v>
+        <v>19.15329845780625</v>
       </c>
       <c r="K9" t="n">
-        <v>32.736037756885</v>
+        <v>32.73603775688466</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211076</v>
+        <v>44.0176426421103</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526892</v>
+        <v>51.36651278526841</v>
       </c>
       <c r="N9" t="n">
-        <v>52.7260315328659</v>
+        <v>52.72603153286536</v>
       </c>
       <c r="O9" t="n">
-        <v>48.234017986195</v>
+        <v>48.23401798619449</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006298</v>
+        <v>38.71205182006258</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542961</v>
+        <v>25.87798144542933</v>
       </c>
       <c r="R9" t="n">
-        <v>12.5868851477976</v>
+        <v>12.58688514779749</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235182</v>
+        <v>12.0161639323517</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055758</v>
+        <v>19.74624856055738</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207815</v>
+        <v>25.26839976207789</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803555</v>
+        <v>26.64198465803528</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063114</v>
+        <v>26.00849781063089</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547336</v>
+        <v>24.02305732547312</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333786</v>
+        <v>20.55587565333767</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839561</v>
+        <v>14.23182280839546</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,19 +35406,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35427,7 +35427,7 @@
         <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916792</v>
+        <v>34.56235976916783</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562325</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M12" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917234</v>
@@ -35512,7 +35512,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -35807,7 +35807,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -35880,13 +35880,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
         <v>296.0766412766674</v>
@@ -35901,7 +35901,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -35974,7 +35974,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
@@ -36044,7 +36044,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -36117,16 +36117,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816032</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -36211,7 +36211,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
@@ -36281,7 +36281,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -36354,16 +36354,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
@@ -36375,13 +36375,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -36448,7 +36448,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36518,7 +36518,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
@@ -36600,7 +36600,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
@@ -36609,7 +36609,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
         <v>269.7982739184536</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -36679,7 +36679,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -36828,16 +36828,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
@@ -36910,7 +36910,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -37065,19 +37065,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
@@ -37086,13 +37086,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -37159,7 +37159,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742734</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -37302,25 +37302,25 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.773032299473</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P35" t="n">
         <v>269.7982739184536</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -37405,10 +37405,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -37539,19 +37539,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233554</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -37724,7 +37724,7 @@
         <v>70.47199114207638</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,19 +37776,19 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
@@ -37797,13 +37797,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405465</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811309</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -37961,7 +37961,7 @@
         <v>70.47199114207638</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38098,10 +38098,10 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
         <v>254.3525508108055</v>
